--- a/UK.xlsx
+++ b/UK.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U569220\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U569220\Downloads\Misc\workspace\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Travel Times &amp; Costs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>England 2019 Wooooo!</t>
   </si>
@@ -135,13 +135,31 @@
   </si>
   <si>
     <t>Train pass and buses/taxies or rental car</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Porthpean House/Lodge</t>
+  </si>
+  <si>
+    <t>Min Cost</t>
+  </si>
+  <si>
+    <t>Max Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +195,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,27 +243,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -518,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -533,28 +562,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -572,71 +601,71 @@
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>650</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>1200</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>315</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>450</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>650</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -655,43 +684,43 @@
         <f>(50+250)</f>
         <v>300</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>280</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>280</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>125</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>215</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>250</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -703,98 +732,98 @@
       <c r="E12">
         <v>250</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>210</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>250</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>650</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>1200</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>420</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>550</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>630</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -813,43 +842,43 @@
         <f>(50+250)</f>
         <v>300</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>280</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>280</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>125</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>250</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>280</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>0</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -861,34 +890,34 @@
       <c r="E22">
         <v>250</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>210</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>280</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B25">
@@ -896,12 +925,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -918,50 +947,50 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <f>(C7*3)+E7+C10+E10+B25</f>
         <v>1810</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <f>(D7*3)+E7+D10+E10+B25</f>
         <v>2215</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>C13+E13+(C6*3)+E6+B25</f>
         <v>2310</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <f>D13+E13+(D6*3)+E6+B25</f>
         <v>4000</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <f>(C8*3)+E8+(C11*2)+E11+B25</f>
         <v>2530</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f>(D8*3)+E8+(D11*2)+E11+B25</f>
         <v>4250</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -969,7 +998,7 @@
       <c r="A32" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -983,7 +1012,7 @@
         <f>D7*2+E7+D8+E8+B25</f>
         <v>2560</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -999,17 +1028,17 @@
         <f>D6*2+E6+D8+E8+B25</f>
         <v>3750</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1026,50 +1055,50 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <f>(C17*3)+E17+C20+E20+B25</f>
         <v>2125</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <f>(D17*3)+E17+D20+E20+B25</f>
         <v>2515</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <f>C23+E23+(C16*3)+E16+B25</f>
         <v>2310</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <f>D23+E23+(D16*3)+E16+B25</f>
         <v>4030</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <f>(C18*3)+E18+(C21*2)+E21+B25</f>
         <v>2540</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f>(D17*3)+E17+(D20*2)+E20+B25</f>
         <v>2795</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1077,7 +1106,7 @@
       <c r="A41" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1091,7 +1120,7 @@
         <f>D17*2+E17+D18+E18+B25</f>
         <v>2360</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1107,7 +1136,7 @@
         <f>D16*2+E16+D18+E18+B25</f>
         <v>3350</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1146,20 +1175,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>450</v>
+      </c>
+      <c r="D3">
+        <v>750</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/UK.xlsx
+++ b/UK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365"/>
   </bookViews>
   <sheets>
     <sheet name="Travel Times &amp; Costs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>England 2019 Wooooo!</t>
   </si>
@@ -53,9 +53,6 @@
     <t>San Antonio</t>
   </si>
   <si>
-    <t>Dallas</t>
-  </si>
-  <si>
     <t>Gatwick or London City</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>We all go to Chicago</t>
   </si>
   <si>
-    <t>We all go to Dallas</t>
-  </si>
-  <si>
     <t>We go to San Antonio</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Extra trip time for Russell</t>
   </si>
   <si>
-    <t>Train pass and buses/taxies or rental car</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -146,13 +137,76 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Porthpean House/Lodge</t>
-  </si>
-  <si>
     <t>Min Cost</t>
   </si>
   <si>
     <t>Max Cost</t>
+  </si>
+  <si>
+    <t>Pass Type</t>
+  </si>
+  <si>
+    <t>Travel Days</t>
+  </si>
+  <si>
+    <t>BritRail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>8 consecutive</t>
+  </si>
+  <si>
+    <t>4 flexible</t>
+  </si>
+  <si>
+    <t>8 flexible</t>
+  </si>
+  <si>
+    <t>BritRail Group</t>
+  </si>
+  <si>
+    <t>BritRail Individual</t>
+  </si>
+  <si>
+    <t>BritRail England Individual</t>
+  </si>
+  <si>
+    <t>BritRail England Group</t>
+  </si>
+  <si>
+    <t>BritRailSoutWest Group</t>
+  </si>
+  <si>
+    <t>BritRailSoutWest Individual</t>
+  </si>
+  <si>
+    <t>All of the UK</t>
+  </si>
+  <si>
+    <t>All of England</t>
+  </si>
+  <si>
+    <t>Roughly the bottom third of England/Wales</t>
+  </si>
+  <si>
+    <t>15 consecutive</t>
+  </si>
+  <si>
+    <t>Individual Cost</t>
+  </si>
+  <si>
+    <t>Group Cost</t>
+  </si>
+  <si>
+    <t>Lodge</t>
+  </si>
+  <si>
+    <t>Porthpean House</t>
   </si>
 </sst>
 </file>
@@ -208,7 +262,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,6 +287,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -257,13 +323,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -280,6 +360,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>199068</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103486</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="123825"/>
+          <a:ext cx="7657143" cy="10314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -545,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,28 +685,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -593,13 +716,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -608,19 +731,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>650</v>
       </c>
       <c r="D6" s="3">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -633,20 +756,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4">
-        <v>315</v>
+        <v>400</v>
       </c>
       <c r="D7" s="4">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="E7" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -654,13 +777,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="D8" s="2">
-        <v>1200</v>
+        <v>1150</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -668,485 +791,664 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>240</v>
+      </c>
+      <c r="D9" s="4">
+        <v>205</v>
+      </c>
+      <c r="E9" s="4">
+        <v>125</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>270</v>
+      </c>
+      <c r="D10" s="2">
+        <v>350</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>268</v>
+      </c>
+      <c r="D11" s="3">
+        <v>305</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>650</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>550</v>
-      </c>
-      <c r="D9">
-        <v>700</v>
-      </c>
-      <c r="E9">
-        <f>(50+250)</f>
-        <v>300</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>280</v>
-      </c>
-      <c r="D10" s="4">
-        <v>280</v>
-      </c>
-      <c r="E10" s="4">
-        <v>125</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2">
-        <v>215</v>
-      </c>
-      <c r="D11" s="2">
-        <v>250</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>250</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3">
-        <v>210</v>
-      </c>
-      <c r="D13" s="3">
-        <v>250</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3">
-        <v>650</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="4">
-        <v>420</v>
-      </c>
-      <c r="D17" s="4">
-        <v>550</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="C16" s="4">
+        <v>315</v>
+      </c>
+      <c r="D16" s="4">
+        <v>450</v>
+      </c>
+      <c r="E16" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>650</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>630</v>
-      </c>
-      <c r="D18" s="2">
-        <v>800</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>280</v>
+      </c>
+      <c r="D18" s="4">
+        <v>280</v>
+      </c>
+      <c r="E18" s="4">
+        <v>125</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>215</v>
+      </c>
+      <c r="D19" s="2">
+        <v>250</v>
+      </c>
+      <c r="E19" s="2">
         <v>0</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>525</v>
-      </c>
-      <c r="D19">
-        <v>850</v>
-      </c>
-      <c r="E19">
-        <f>(50+250)</f>
-        <v>300</v>
-      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="4">
-        <v>280</v>
-      </c>
-      <c r="D20" s="4">
-        <v>280</v>
-      </c>
-      <c r="E20" s="4">
-        <v>125</v>
+      <c r="B20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>210</v>
+      </c>
+      <c r="D20" s="3">
+        <v>250</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2">
-        <v>250</v>
-      </c>
-      <c r="D21" s="2">
-        <v>280</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22">
-        <v>250</v>
-      </c>
+    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>210</v>
+        <v>650</v>
       </c>
       <c r="D23" s="3">
-        <v>280</v>
+        <v>1200</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>420</v>
+      </c>
+      <c r="D24" s="4">
+        <v>550</v>
+      </c>
+      <c r="E24" s="4">
+        <f>60+250</f>
+        <v>310</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
+        <v>630</v>
+      </c>
+      <c r="D25" s="2">
+        <v>800</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="4">
+        <v>280</v>
+      </c>
+      <c r="D26" s="4">
+        <v>280</v>
+      </c>
+      <c r="E26" s="4">
+        <v>125</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>250</v>
+      </c>
+      <c r="D27" s="2">
+        <v>280</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>210</v>
+      </c>
+      <c r="D28" s="3">
+        <v>280</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4">
+        <f>(C7*3)+E7+C9+E9+B30</f>
+        <v>2025</v>
+      </c>
+      <c r="C34" s="4">
+        <f>(D7*3)+E7+D9+E9+B30</f>
+        <v>2080</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="3">
+        <f>C11+E11+(C6*3)+E6+B30</f>
+        <v>2368</v>
+      </c>
+      <c r="C35" s="3">
+        <f>D11+E11+(D6*3)+E6+B30</f>
+        <v>3905</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2">
+        <f>(C8*3)+E8+(C10*2)+E10+B30</f>
+        <v>2670</v>
+      </c>
+      <c r="C36" s="2">
+        <f>(D8*3)+E8+(D10*2)+E10+B30</f>
+        <v>4300</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <f>C7*2+E7+C10+E10+B30</f>
+        <v>1530</v>
+      </c>
+      <c r="C37">
+        <f>D7*2+E7+D8+E8+B30</f>
+        <v>2470</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <f>C6*2+E6+C8+E8+B30</f>
+        <v>2110</v>
+      </c>
+      <c r="C38">
+        <f>D6*2+E6+D8+E8+B30</f>
+        <v>3600</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4">
+        <f>(C16*3)+E16+C18+E18+B30</f>
+        <v>1810</v>
+      </c>
+      <c r="C42" s="4">
+        <f>(D16*3)+E16+D18+E18+B30</f>
+        <v>2215</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="3">
+        <f>C20+E20+(C15*3)+E15+B30</f>
+        <v>2310</v>
+      </c>
+      <c r="C43" s="3">
+        <f>D20+E20+(D15*3)+E15+B30</f>
+        <v>4000</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2">
+        <f>(C17*3)+E17+(C19*2)+E19+B30</f>
+        <v>2530</v>
+      </c>
+      <c r="C44" s="2">
+        <f>(D17*3)+E17+(D19*2)+E19+B30</f>
+        <v>4250</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45">
+        <f>C16*2+E16+C17+E17+B30</f>
+        <v>1740</v>
+      </c>
+      <c r="C45">
+        <f>D16*2+E16+D17+E17+B30</f>
+        <v>2560</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="B46">
+        <f>C15*2+E15+C17+E17+B30</f>
+        <v>2100</v>
+      </c>
+      <c r="C46">
+        <f>D15*2+E15+D17+E17+B30</f>
+        <v>3750</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4">
+        <f>(C24*3)+E24+C26+E26+B30</f>
+        <v>2125</v>
+      </c>
+      <c r="C50" s="4">
+        <f>(D24*3)+E24+D26+E26+B30</f>
+        <v>2515</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="3">
+        <f>C28+E28+(C23*3)+E23+B30</f>
+        <v>2310</v>
+      </c>
+      <c r="C51" s="3">
+        <f>D28+E28+(D23*3)+E23+B30</f>
+        <v>4030</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="2">
+        <f>(C25*3)+E25+(C27*2)+E27+B30</f>
+        <v>2540</v>
+      </c>
+      <c r="C52" s="2">
+        <f>(D24*3)+E24+(D26*2)+E26+B30</f>
+        <v>2795</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="4">
-        <f>(C7*3)+E7+C10+E10+B25</f>
-        <v>1810</v>
-      </c>
-      <c r="C29" s="4">
-        <f>(D7*3)+E7+D10+E10+B25</f>
-        <v>2215</v>
-      </c>
-      <c r="D29" s="7" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53">
+        <f>C24*2+E24+C25+E25+B30</f>
+        <v>1930</v>
+      </c>
+      <c r="C53">
+        <f>D24*2+E24+D25+E25+B30</f>
+        <v>2360</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="3">
-        <f>C13+E13+(C6*3)+E6+B25</f>
-        <v>2310</v>
-      </c>
-      <c r="C30" s="3">
-        <f>D13+E13+(D6*3)+E6+B25</f>
-        <v>4000</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="2">
-        <f>(C8*3)+E8+(C11*2)+E11+B25</f>
-        <v>2530</v>
-      </c>
-      <c r="C31" s="2">
-        <f>(D8*3)+E8+(D11*2)+E11+B25</f>
-        <v>4250</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54">
+        <f>C23*2+E23+C25+E25+B30</f>
+        <v>2080</v>
+      </c>
+      <c r="C54">
+        <f>D23*2+E23+D25+E25+B30</f>
+        <v>3350</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B33">
-        <f>C7*2+E7+C8+E8+B25</f>
-        <v>1740</v>
-      </c>
-      <c r="C33">
-        <f>D7*2+E7+D8+E8+B25</f>
-        <v>2560</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34">
-        <f>C6*2+E6+C8+E8+B25</f>
-        <v>2100</v>
-      </c>
-      <c r="C34">
-        <f>D6*2+E6+D8+E8+B25</f>
-        <v>3750</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="4">
-        <f>(C17*3)+E17+C20+E20+B25</f>
-        <v>2125</v>
-      </c>
-      <c r="C38" s="4">
-        <f>(D17*3)+E17+D20+E20+B25</f>
-        <v>2515</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="3">
-        <f>C23+E23+(C16*3)+E16+B25</f>
-        <v>2310</v>
-      </c>
-      <c r="C39" s="3">
-        <f>D23+E23+(D16*3)+E16+B25</f>
-        <v>4030</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="2">
-        <f>(C18*3)+E18+(C21*2)+E21+B25</f>
-        <v>2540</v>
-      </c>
-      <c r="C40" s="2">
-        <f>(D17*3)+E17+(D20*2)+E20+B25</f>
-        <v>2795</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42">
-        <f>C17*2+E17+C18+E18+B25</f>
-        <v>1930</v>
-      </c>
-      <c r="C42">
-        <f>D17*2+E17+D18+E18+B25</f>
-        <v>2360</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <f>C16*2+E16+C18+E18+B25</f>
-        <v>2080</v>
-      </c>
-      <c r="C43">
-        <f>D16*2+E16+D18+E18+B25</f>
-        <v>3350</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>27</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A36:D36"/>
+  <mergeCells count="7">
+    <mergeCell ref="A48:D48"/>
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1165,7 +1467,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1175,9 +1477,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1187,40 +1491,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="D3">
         <v>750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4">
+        <v>4120</v>
+      </c>
+      <c r="D4">
+        <v>4450</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" display="Porthpean House/Lodge"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1228,23 +1547,446 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>35</v>
-      </c>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="12">
+        <f>D3/3</f>
+        <v>253</v>
+      </c>
+      <c r="D3" s="12">
+        <v>759</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C26" si="0">D4/3</f>
+        <v>377</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1131</v>
+      </c>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="D5" s="12">
+        <v>672</v>
+      </c>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="D6" s="12">
+        <v>963</v>
+      </c>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>301</v>
+      </c>
+      <c r="D7" s="12">
+        <v>903</v>
+      </c>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>447.66666666666669</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1343</v>
+      </c>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="D9" s="12">
+        <v>798</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1143</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="13">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="D11" s="13">
+        <v>606</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="D12" s="13">
+        <v>894</v>
+      </c>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="13">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="D13" s="13">
+        <v>537</v>
+      </c>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="D14" s="13">
+        <v>774</v>
+      </c>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="0"/>
+        <v>239.33333333333334</v>
+      </c>
+      <c r="D15" s="13">
+        <v>718</v>
+      </c>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="13">
+        <f t="shared" si="0"/>
+        <v>354.33333333333331</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1063</v>
+      </c>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="0"/>
+        <v>212.66666666666666</v>
+      </c>
+      <c r="D17" s="13">
+        <v>638</v>
+      </c>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="D18" s="13">
+        <v>918</v>
+      </c>
+      <c r="E18" s="18"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="D19" s="14">
+        <v>537</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="14">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+      <c r="D20" s="14">
+        <v>795</v>
+      </c>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="14">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="D21" s="14">
+        <v>471</v>
+      </c>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="D22" s="14">
+        <v>672</v>
+      </c>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" si="0"/>
+        <v>212.66666666666666</v>
+      </c>
+      <c r="D23" s="14">
+        <v>638</v>
+      </c>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14">
+        <f t="shared" si="0"/>
+        <v>314.33333333333331</v>
+      </c>
+      <c r="D24" s="14">
+        <v>943</v>
+      </c>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="D25" s="14">
+        <v>798</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="E11:E18"/>
+    <mergeCell ref="E19:E26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/UK.xlsx
+++ b/UK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U569220\Downloads\Misc\workspace\Spider\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmbig\workspace\Spider\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB267502-04E1-4AD2-AB3F-E6DAB701005D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Travel Times &amp; Costs" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Lodging" sheetId="2" r:id="rId3"/>
     <sheet name="Transportation" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="58">
   <si>
     <t>England 2019 Wooooo!</t>
   </si>
@@ -107,16 +108,10 @@
     <t>Risky meeting in london</t>
   </si>
   <si>
-    <t>Min-max - depends on time/day of week leaving/returning</t>
-  </si>
-  <si>
     <t>Scenario</t>
   </si>
   <si>
     <t>Bag fee</t>
-  </si>
-  <si>
-    <t>Prices as of Jan 2nd</t>
   </si>
   <si>
     <t>Various city hotel rates</t>
@@ -212,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,34 +361,39 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>199068</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>103486</xdr:rowOff>
+      <xdr:colOff>418143</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>17760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="44050"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6057900" y="123825"/>
-          <a:ext cx="7657143" cy="10314286"/>
+          <a:off x="6276975" y="200024"/>
+          <a:ext cx="7657143" cy="5770861"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,11 +667,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,756 +699,752 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>650</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1150</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>650</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1150</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C6" s="4">
         <v>400</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D6" s="4">
         <v>430</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E6" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>660</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1150</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2">
-        <v>660</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1150</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>240</v>
+      </c>
+      <c r="D8" s="4">
+        <v>205</v>
+      </c>
+      <c r="E8" s="4">
+        <v>125</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>270</v>
+      </c>
+      <c r="D9" s="2">
+        <v>350</v>
+      </c>
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>268</v>
+      </c>
+      <c r="D10" s="3">
+        <v>305</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3">
+        <v>650</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <v>240</v>
-      </c>
-      <c r="D9" s="4">
-        <v>205</v>
-      </c>
-      <c r="E9" s="4">
-        <v>125</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>270</v>
-      </c>
-      <c r="D10" s="2">
-        <v>350</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3">
-        <v>268</v>
-      </c>
-      <c r="D11" s="3">
-        <v>305</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3">
-        <v>650</v>
-      </c>
-      <c r="D15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C15" s="4">
         <v>315</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D15" s="4">
         <v>450</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E15" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2">
+        <v>650</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <v>280</v>
+      </c>
+      <c r="D17" s="4">
+        <v>280</v>
+      </c>
+      <c r="E17" s="4">
+        <v>125</v>
+      </c>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>215</v>
+      </c>
+      <c r="D18" s="2">
+        <v>250</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>210</v>
+      </c>
+      <c r="D19" s="3">
+        <v>250</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="3">
         <v>650</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D22" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
-        <v>280</v>
-      </c>
-      <c r="D18" s="4">
-        <v>280</v>
-      </c>
-      <c r="E18" s="4">
-        <v>125</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2">
-        <v>215</v>
-      </c>
-      <c r="D19" s="2">
-        <v>250</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>210</v>
-      </c>
-      <c r="D20" s="3">
-        <v>250</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3">
-        <v>650</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C23" s="4">
         <v>420</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D23" s="4">
         <v>550</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E23" s="4">
         <f>60+250</f>
         <v>310</v>
       </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2">
+        <v>630</v>
+      </c>
+      <c r="D24" s="2">
+        <v>800</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="2">
-        <v>630</v>
-      </c>
-      <c r="D25" s="2">
-        <v>800</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <v>280</v>
+      </c>
+      <c r="D25" s="4">
+        <v>280</v>
+      </c>
+      <c r="E25" s="4">
+        <v>125</v>
+      </c>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>250</v>
+      </c>
+      <c r="D26" s="2">
+        <v>280</v>
+      </c>
+      <c r="E26" s="2">
         <v>0</v>
       </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>210</v>
+      </c>
+      <c r="D27" s="3">
         <v>280</v>
       </c>
-      <c r="D26" s="4">
-        <v>280</v>
-      </c>
-      <c r="E26" s="4">
-        <v>125</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2">
-        <v>250</v>
-      </c>
-      <c r="D27" s="2">
-        <v>280</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>210</v>
-      </c>
-      <c r="D28" s="3">
-        <v>280</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>19</v>
+      <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4">
+        <f>(C6*3)+E6+C8+E8+B29</f>
+        <v>2025</v>
+      </c>
+      <c r="C33" s="4">
+        <f>(D6*3)+E6+D8+E8+B29</f>
+        <v>2080</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4">
-        <f>(C7*3)+E7+C9+E9+B30</f>
-        <v>2025</v>
-      </c>
-      <c r="C34" s="4">
-        <f>(D7*3)+E7+D9+E9+B30</f>
-        <v>2080</v>
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3">
+        <f>C10+E10+(C5*3)+E5+B29</f>
+        <v>2368</v>
+      </c>
+      <c r="C34" s="3">
+        <f>D10+E10+(D5*3)+E5+B29</f>
+        <v>3905</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="3">
-        <f>C11+E11+(C6*3)+E6+B30</f>
-        <v>2368</v>
-      </c>
-      <c r="C35" s="3">
-        <f>D11+E11+(D6*3)+E6+B30</f>
-        <v>3905</v>
+      <c r="A35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2">
+        <f>(C7*3)+E7+(C9*2)+E9+B29</f>
+        <v>2670</v>
+      </c>
+      <c r="C35" s="2">
+        <f>(D7*3)+E7+(D9*2)+E9+B29</f>
+        <v>4300</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="2">
-        <f>(C8*3)+E8+(C10*2)+E10+B30</f>
-        <v>2670</v>
-      </c>
-      <c r="C36" s="2">
-        <f>(D8*3)+E8+(D10*2)+E10+B30</f>
-        <v>4300</v>
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36">
+        <f>C6*2+E6+C9+E9+B29</f>
+        <v>1530</v>
+      </c>
+      <c r="C36">
+        <f>D6*2+E6+D7+E7+B29</f>
+        <v>2470</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f>C5*2+E5+C7+E7+B29</f>
+        <v>2110</v>
+      </c>
+      <c r="C37">
+        <f>D5*2+E5+D7+E7+B29</f>
+        <v>3600</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="4">
+        <f>(C15*3)+E15+C17+E17+B29</f>
+        <v>1810</v>
+      </c>
+      <c r="C41" s="4">
+        <f>(D15*3)+E15+D17+E17+B29</f>
+        <v>2215</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="3">
+        <f>C19+E19+(C14*3)+E14+B29</f>
+        <v>2310</v>
+      </c>
+      <c r="C42" s="3">
+        <f>D19+E19+(D14*3)+E14+B29</f>
+        <v>4000</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2">
+        <f>(C16*3)+E16+(C18*2)+E18+B29</f>
+        <v>2530</v>
+      </c>
+      <c r="C43" s="2">
+        <f>(D16*3)+E16+(D18*2)+E18+B29</f>
+        <v>4250</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>23</v>
       </c>
-      <c r="B37">
-        <f>C7*2+E7+C10+E10+B30</f>
-        <v>1530</v>
-      </c>
-      <c r="C37">
-        <f>D7*2+E7+D8+E8+B30</f>
-        <v>2470</v>
-      </c>
-      <c r="D37" s="7" t="s">
+      <c r="B44">
+        <f>C15*2+E15+C16+E16+B29</f>
+        <v>1740</v>
+      </c>
+      <c r="C44">
+        <f>D15*2+E15+D16+E16+B29</f>
+        <v>2560</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38">
-        <f>C6*2+E6+C8+E8+B30</f>
-        <v>2110</v>
-      </c>
-      <c r="C38">
-        <f>D6*2+E6+D8+E8+B30</f>
-        <v>3600</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" s="4">
-        <f>(C16*3)+E16+C18+E18+B30</f>
-        <v>1810</v>
-      </c>
-      <c r="C42" s="4">
-        <f>(D16*3)+E16+D18+E18+B30</f>
-        <v>2215</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" s="3">
-        <f>C20+E20+(C15*3)+E15+B30</f>
-        <v>2310</v>
-      </c>
-      <c r="C43" s="3">
-        <f>D20+E20+(D15*3)+E15+B30</f>
-        <v>4000</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="2">
-        <f>(C17*3)+E17+(C19*2)+E19+B30</f>
-        <v>2530</v>
-      </c>
-      <c r="C44" s="2">
-        <f>(D17*3)+E17+(D19*2)+E19+B30</f>
-        <v>4250</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <f>C14*2+E14+C16+E16+B29</f>
+        <v>2100</v>
+      </c>
+      <c r="C45">
+        <f>D14*2+E14+D16+E16+B29</f>
+        <v>3750</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="4">
+        <f>(C23*3)+E23+C25+E25+B29</f>
+        <v>2125</v>
+      </c>
+      <c r="C49" s="4">
+        <f>(D23*3)+E23+D25+E25+B29</f>
+        <v>2515</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3">
+        <f>C27+E27+(C22*3)+E22+B29</f>
+        <v>2310</v>
+      </c>
+      <c r="C50" s="3">
+        <f>D27+E27+(D22*3)+E22+B29</f>
+        <v>4030</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2">
+        <f>(C24*3)+E24+(C26*2)+E26+B29</f>
+        <v>2540</v>
+      </c>
+      <c r="C51" s="2">
+        <f>(D23*3)+E23+(D25*2)+E25+B29</f>
+        <v>2795</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>23</v>
       </c>
-      <c r="B45">
-        <f>C16*2+E16+C17+E17+B30</f>
-        <v>1740</v>
-      </c>
-      <c r="C45">
-        <f>D16*2+E16+D17+E17+B30</f>
-        <v>2560</v>
-      </c>
-      <c r="D45" s="7" t="s">
+      <c r="B52">
+        <f>C23*2+E23+C24+E24+B29</f>
+        <v>1930</v>
+      </c>
+      <c r="C52">
+        <f>D23*2+E23+D24+E24+B29</f>
+        <v>2360</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <f>C15*2+E15+C17+E17+B30</f>
-        <v>2100</v>
-      </c>
-      <c r="C46">
-        <f>D15*2+E15+D17+E17+B30</f>
-        <v>3750</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" s="4">
-        <f>(C24*3)+E24+C26+E26+B30</f>
-        <v>2125</v>
-      </c>
-      <c r="C50" s="4">
-        <f>(D24*3)+E24+D26+E26+B30</f>
-        <v>2515</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" s="3">
-        <f>C28+E28+(C23*3)+E23+B30</f>
-        <v>2310</v>
-      </c>
-      <c r="C51" s="3">
-        <f>D28+E28+(D23*3)+E23+B30</f>
-        <v>4030</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" s="2">
-        <f>(C25*3)+E25+(C27*2)+E27+B30</f>
-        <v>2540</v>
-      </c>
-      <c r="C52" s="2">
-        <f>(D24*3)+E24+(D26*2)+E26+B30</f>
-        <v>2795</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <f>C24*2+E24+C25+E25+B30</f>
-        <v>1930</v>
+        <f>C22*2+E22+C24+E24+B29</f>
+        <v>2080</v>
       </c>
       <c r="C53">
-        <f>D24*2+E24+D25+E25+B30</f>
-        <v>2360</v>
+        <f>D22*2+E22+D24+E24+B29</f>
+        <v>3350</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54">
-        <f>C23*2+E23+C25+E25+B30</f>
-        <v>2080</v>
-      </c>
-      <c r="C54">
-        <f>D23*2+E23+D25+E25+B30</f>
-        <v>3350</v>
-      </c>
-      <c r="D54" s="7" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A47:D47"/>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1456,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1467,7 +1463,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1491,29 +1487,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>700</v>
@@ -1524,10 +1520,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4">
         <v>4120</v>
@@ -1538,19 +1534,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" display="Porthpean House/Lodge"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="Porthpean House/Lodge" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -1573,27 +1569,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="12">
         <f>D3/3</f>
@@ -1603,15 +1599,15 @@
         <v>759</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" ref="C4:C26" si="0">D4/3</f>
@@ -1624,10 +1620,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="0"/>
@@ -1640,10 +1636,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C6" s="12">
         <f t="shared" si="0"/>
@@ -1656,10 +1652,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="12">
         <f t="shared" si="0"/>
@@ -1672,10 +1668,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="12">
         <f t="shared" si="0"/>
@@ -1688,10 +1684,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="12">
         <f t="shared" si="0"/>
@@ -1704,10 +1700,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="12">
         <f t="shared" si="0"/>
@@ -1720,10 +1716,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="13">
         <f t="shared" si="0"/>
@@ -1733,15 +1729,15 @@
         <v>606</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13">
         <f t="shared" si="0"/>
@@ -1754,10 +1750,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <f t="shared" si="0"/>
@@ -1770,10 +1766,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="13">
         <f t="shared" si="0"/>
@@ -1786,10 +1782,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="13">
         <f t="shared" si="0"/>
@@ -1802,10 +1798,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13">
         <f t="shared" si="0"/>
@@ -1818,10 +1814,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="13">
         <f t="shared" si="0"/>
@@ -1834,10 +1830,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="13">
         <f t="shared" si="0"/>
@@ -1850,10 +1846,10 @@
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" si="0"/>
@@ -1863,15 +1859,15 @@
         <v>537</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" si="0"/>
@@ -1884,10 +1880,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="0"/>
@@ -1900,10 +1896,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" si="0"/>
@@ -1916,10 +1912,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="14">
         <f t="shared" si="0"/>
@@ -1932,10 +1928,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" si="0"/>
@@ -1948,10 +1944,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" si="0"/>
@@ -1964,10 +1960,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
